--- a/upload/state_1_template.xlsx
+++ b/upload/state_1_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -106,6 +106,7 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,17 +188,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8421052631579"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3724696356275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8461538461538"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -212,6 +213,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="n">
+        <f aca="false">3</f>
         <v>3</v>
       </c>
     </row>
@@ -242,7 +244,8 @@
       <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="b">
+      <c r="E3" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -256,7 +259,8 @@
       <c r="D4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="b">
+      <c r="E4" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -270,7 +274,8 @@
       <c r="D5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="b">
+      <c r="E5" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -305,7 +310,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/upload/state_1_template.xlsx
+++ b/upload/state_1_template.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Products Or Substrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Products</t>
+    <t xml:space="preserve">Prod</t>
   </si>
   <si>
     <t xml:space="preserve">Number Of Materials</t>
@@ -188,17 +188,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -238,6 +238,9 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -245,7 +248,6 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="n">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -253,6 +255,9 @@
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
@@ -260,14 +265,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
       </c>
@@ -275,7 +282,6 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="n">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
